--- a/2023/02产品/SNC8x/01)竞品分析/00)竞品芯片分析/品牌产品路线分析/TI/TI 产品线分析.xlsx
+++ b/2023/02产品/SNC8x/01)竞品分析/00)竞品芯片分析/品牌产品路线分析/TI/TI 产品线分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\02产品\00)竞品IC分析\品牌产品路线分析\TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\02产品\SNC8x\01)竞品分析\00)竞品芯片分析\品牌产品路线分析\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D9AF81-B682-4022-883C-ADB9E1CD959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7EBC57-648F-4B6F-9B6A-E632E6A88D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -402,12 +402,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -415,6 +409,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1084,10 +1084,10 @@
       <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="11"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1196,8 +1196,8 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="11"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1212,8 +1212,8 @@
     </row>
     <row r="10" spans="3:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C10" s="11"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="11"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1248,8 +1248,8 @@
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="11"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1264,8 +1264,8 @@
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="11"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1280,8 +1280,8 @@
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="11"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1296,8 +1296,8 @@
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="11"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1312,8 +1312,8 @@
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="11"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1328,8 +1328,8 @@
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="11"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1344,8 +1344,8 @@
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="11"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1360,8 +1360,8 @@
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="11"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="11"/>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1392,10 +1392,10 @@
       <c r="M20" s="7"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="3:14" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="11"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1412,8 +1412,8 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="11"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1428,8 +1428,8 @@
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="11"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1550,12 +1550,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G3:J3"/>
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="E24:E28"/>
@@ -1565,6 +1559,12 @@
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D11:D19"/>
     <mergeCell ref="D20:D23"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K5:K8 K9:L29 N5:N23">
@@ -1663,7 +1663,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Excel.Sheet.12" dvAspect="DVASPECT_ICON" link="[4]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1032">
+        <oleObject dvAspect="DVASPECT_ICON" link="[4]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1032">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
@@ -1683,7 +1683,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Excel.Sheet.12" dvAspect="DVASPECT_ICON" link="[4]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1032"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[4]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1032"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/2023/02产品/SNC8x/01)竞品分析/00)竞品芯片分析/品牌产品路线分析/TI/TI 产品线分析.xlsx
+++ b/2023/02产品/SNC8x/01)竞品分析/00)竞品芯片分析/品牌产品路线分析/TI/TI 产品线分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\02产品\SNC8x\01)竞品分析\00)竞品芯片分析\品牌产品路线分析\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7EBC57-648F-4B6F-9B6A-E632E6A88D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91C66FA-0D34-440F-9E88-0E13788814C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="音频相关产品线" sheetId="1" r:id="rId1"/>
@@ -402,6 +402,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -409,12 +415,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1084,10 +1084,10 @@
       <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="11"/>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1196,8 +1196,8 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1212,8 +1212,8 @@
     </row>
     <row r="10" spans="3:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C10" s="11"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1248,8 +1248,8 @@
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1264,8 +1264,8 @@
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1280,8 +1280,8 @@
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1296,8 +1296,8 @@
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1312,8 +1312,8 @@
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="11"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1328,8 +1328,8 @@
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="11"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1344,8 +1344,8 @@
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="11"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1360,8 +1360,8 @@
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="11"/>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1394,8 +1394,8 @@
     </row>
     <row r="21" spans="3:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="11"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1412,8 +1412,8 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1428,8 +1428,8 @@
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="11"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1550,6 +1550,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="E24:E28"/>
@@ -1559,12 +1565,6 @@
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D11:D19"/>
     <mergeCell ref="D20:D23"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K5:K8 K9:L29 N5:N23">
